--- a/biology/Botanique/Chiendent/Chiendent.xlsx
+++ b/biology/Botanique/Chiendent/Chiendent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 chiendent, sur le Wiktionnaire
-On appelle chiendent plusieurs espèces de plantes herbacées de la famille des Poaceae, très communes et adventices des cultures. Le genre principal est Elytrigia, auquel appartient le chiendent officinal ou petit chiendent, le plus commun. De nombreux taxinomistes  ne reconnaissent plus le genre Elytrigia, le fusionnent avec Elymus en vertu de nombreuses études cytogénétiques qui mettent en évidence la similarité de leurs compositions génomiques[1] et l'avaient exclu de longue date de la flore d'Europe[2]. On peut donc considérer que chiendent est le nom vernaculaire du genre Elymus. 
-L'espèce Elymus repens fait aujourd'hui l'objet de recherches[3], notamment pour l'identification des caractéristiques des espèces pâturées par les herbivores. Elymus repens est en effet une espèce colonisatrice, grâce à ses nombreux rhizomes.
+On appelle chiendent plusieurs espèces de plantes herbacées de la famille des Poaceae, très communes et adventices des cultures. Le genre principal est Elytrigia, auquel appartient le chiendent officinal ou petit chiendent, le plus commun. De nombreux taxinomistes  ne reconnaissent plus le genre Elytrigia, le fusionnent avec Elymus en vertu de nombreuses études cytogénétiques qui mettent en évidence la similarité de leurs compositions génomiques et l'avaient exclu de longue date de la flore d'Europe. On peut donc considérer que chiendent est le nom vernaculaire du genre Elymus. 
+L'espèce Elymus repens fait aujourd'hui l'objet de recherches, notamment pour l'identification des caractéristiques des espèces pâturées par les herbivores. Elymus repens est en effet une espèce colonisatrice, grâce à ses nombreux rhizomes.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire de chiendent fait référence aux feuilles pointues de la plante ou, chez le Cynodon au rhizome qui porte de fins bourgeons blancs, aigus et recourbés, évoquant plus ou moins bien des canines de chiens[4],[5].
-Par une formation insolite[6], il a apparemment conservé l'ordre des mots du latin médiéval cani dente (latin classique canis dens, dentis).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire de chiendent fait référence aux feuilles pointues de la plante ou, chez le Cynodon au rhizome qui porte de fins bourgeons blancs, aigus et recourbés, évoquant plus ou moins bien des canines de chiens,.
+Par une formation insolite, il a apparemment conservé l'ordre des mots du latin médiéval cani dente (latin classique canis dens, dentis).
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Espèces du genre obsolète  Elytrigia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chiendent à feuilles de Jonc, Elytrigia juncea   (L.) Nevski
 Chiendent allongé, Elytrigia elongata   (Host) Nevski
@@ -586,7 +602,9 @@
           <t>Espèces d'autres genres de Poaceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chiendent des chiens, Elymus caninus (L.) L.
 Chiendent à balai, Bothriochloa ischaemum   (L.) Keng
@@ -628,7 +646,9 @@
           <t>Espèces d'autres familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chiendent rouge ou laîche des sables, Carex arenaria L. (Cyperaceae).
 Chiendent marin ou pelote de mer, Posidonia oceanica (L.) Delile (Posidoniaceae).</t>
@@ -661,12 +681,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Évocation dans la littérature
+          <t>Évocation dans la littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Le temps n'est plus secondé par les horloges dont les aiguilles s'entre-dévorent aujourd'hui sur le cadran de l'homme. Le temps, c'est du chiendent, et l'homme deviendra du sperme de chiendent »
-— René Char, extrait de Feuillets d'Hypnos.
-Calendrier républicain
-Dans le calendrier républicain, le Chiendent était le nom attribué au 23e jour du mois de pluviôse[7].
-</t>
+— René Char, extrait de Feuillets d'Hypnos.</t>
         </is>
       </c>
     </row>
@@ -691,15 +714,92 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, le Chiendent était le nom attribué au 23e jour du mois de pluviôse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chiendent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chiendent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bioaccumulation d'éléments traces métalliques
-Sans être véritablement métallophyte, cette plante peut bioaccumuler d'importantes quantité de plomb ou d'autres métaux ou métalloïdes toxiques dans ses feuilles, et plus encore dans son système racinaire (par exemple sur des stands de tir utilisant des balles et/ou grenailles de plomb, assez pour induire un saturnisme animal chez les organismes herbivores qui le consommeront, ce qui peut poser des problèmes de santé publique s'il s'agit de gibier ou animaux devant produire des œufs ou de la viande, du lait[8]...). 
-Jardinage
-Le chiendent est considéré comme envahissant par la plupart des jardiniers. Certaines plantes sécrèteraient des substances toxiques pour le chiendent et permettraient de l'éliminer des jardins. Parmi ces plantes, on peut citer l'œillet d'Inde, la rose d'Inde et le souci[9].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bioaccumulation d'éléments traces métalliques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sans être véritablement métallophyte, cette plante peut bioaccumuler d'importantes quantité de plomb ou d'autres métaux ou métalloïdes toxiques dans ses feuilles, et plus encore dans son système racinaire (par exemple sur des stands de tir utilisant des balles et/ou grenailles de plomb, assez pour induire un saturnisme animal chez les organismes herbivores qui le consommeront, ce qui peut poser des problèmes de santé publique s'il s'agit de gibier ou animaux devant produire des œufs ou de la viande, du lait...). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chiendent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chiendent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Jardinage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chiendent est considéré comme envahissant par la plupart des jardiniers. Certaines plantes sécrèteraient des substances toxiques pour le chiendent et permettraient de l'éliminer des jardins. Parmi ces plantes, on peut citer l'œillet d'Inde, la rose d'Inde et le souci.
 </t>
         </is>
       </c>
